--- a/Documents/Testing/TestsDocuments/BB+WB_getTruckDistances2.xlsx
+++ b/Documents/Testing/TestsDocuments/BB+WB_getTruckDistances2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cescadelacruz/Documents/GitHub/SUM23-SFT221-NAA-4/Documents/Testing/TestsDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7277CCAD-C4A1-9A4E-ADA5-17A1177B6820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14FD95-433E-B142-BBB7-43A59DBCF45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>SFT 221</t>
   </si>
@@ -343,6 +343,9 @@
 To calculate the distances of each truck, the function first retrieves the closest point of each truck by calling getClosestPoint(). Then it calculates the distance from the destination of each truck by calling distance(), with the values returned from getClosestPoint() and “destination” as arguments.
 Afterward, it populates the “arr” array with the trucks’ distances and corresponding colour codes and sorts the distances in the array.
 The purpose of the test is to ensure the function calculates and populates the “arr” array correctly, by verifying every index is filled correctly with the truck’s distances and colour codes.</t>
+  </si>
+  <si>
+    <t>FUNCTION: getTruckDistances2</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B529C7-E270-4893-96A7-E1315BD69EEA}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1061,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1344,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBEBE5-E65B-48FE-ACB2-E1CF3882866A}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1665,15 +1668,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008641478389A1824A98F5C5E0B6162E5F" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ef4b42a3ed9448361827c423e89ef89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81b064ac-ebcb-49a1-93f6-e61f75bebfa7" xmlns:ns3="717d1b07-b5a1-4bb5-9d40-3a9b6c764643" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bb8b9f62ca6562dff4b6b6c0721aa08" ns2:_="" ns3:_="">
     <xsd:import namespace="81b064ac-ebcb-49a1-93f6-e61f75bebfa7"/>
@@ -1844,6 +1838,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
   <ds:schemaRefs>
@@ -1862,14 +1865,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A5AAF0-BBBC-48E3-AADB-8E4922D37D7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1886,4 +1881,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/Testing/TestsDocuments/BB+WB_getTruckDistances2.xlsx
+++ b/Documents/Testing/TestsDocuments/BB+WB_getTruckDistances2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cescadelacruz/Documents/GitHub/SUM23-SFT221-NAA-4/Documents/Testing/TestsDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14FD95-433E-B142-BBB7-43A59DBCF45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ABCD37-E4BD-4144-AF0D-EE57C8566C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="500" windowWidth="22320" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +400,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -565,9 +571,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -615,6 +618,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,120 +914,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:9" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:9" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -1044,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B529C7-E270-4893-96A7-E1315BD69EEA}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="C7" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1060,14 +1066,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1105,7 +1111,7 @@
       <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1125,7 +1131,7 @@
       <c r="E4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1145,7 +1151,7 @@
       <c r="E5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1165,7 +1171,7 @@
       <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1185,7 +1191,7 @@
       <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1205,7 +1211,7 @@
       <c r="E8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1225,7 +1231,7 @@
       <c r="E9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1347,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBEBE5-E65B-48FE-ACB2-E1CF3882866A}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1362,14 +1368,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1407,7 +1413,7 @@
       <c r="E3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1427,7 +1433,7 @@
       <c r="E4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1447,7 +1453,7 @@
       <c r="E5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1467,7 +1473,7 @@
       <c r="E6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1487,7 +1493,7 @@
       <c r="E7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1507,7 +1513,7 @@
       <c r="E8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1527,7 +1533,7 @@
       <c r="E9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1547,7 +1553,7 @@
       <c r="E10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="28" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1668,6 +1674,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008641478389A1824A98F5C5E0B6162E5F" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ef4b42a3ed9448361827c423e89ef89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81b064ac-ebcb-49a1-93f6-e61f75bebfa7" xmlns:ns3="717d1b07-b5a1-4bb5-9d40-3a9b6c764643" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bb8b9f62ca6562dff4b6b6c0721aa08" ns2:_="" ns3:_="">
     <xsd:import namespace="81b064ac-ebcb-49a1-93f6-e61f75bebfa7"/>
@@ -1838,15 +1853,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
   <ds:schemaRefs>
@@ -1865,6 +1871,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A5AAF0-BBBC-48E3-AADB-8E4922D37D7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1881,12 +1895,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Testing/TestsDocuments/BB+WB_getTruckDistances2.xlsx
+++ b/Documents/Testing/TestsDocuments/BB+WB_getTruckDistances2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cescadelacruz/Documents/GitHub/SUM23-SFT221-NAA-4/Documents/Testing/TestsDocuments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irish\Documents\SUM23-SFT221-NAA-4\Documents\Testing\TestsDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ABCD37-E4BD-4144-AF0D-EE57C8566C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55B5CA2-6BFC-42B1-AC90-35534381208E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="500" windowWidth="22320" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
   <si>
     <t>SFT 221</t>
   </si>
@@ -346,6 +346,16 @@
   </si>
   <si>
     <t>FUNCTION: getTruckDistances2</t>
+  </si>
+  <si>
+    <t>Actual
+Results</t>
+  </si>
+  <si>
+    <t>MATCHES EXPECTED RESULTS</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
   </si>
 </sst>
 </file>
@@ -571,6 +581,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -618,9 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,132 +914,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>4</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" ht="198" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B10:I10"/>
@@ -1048,34 +1058,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B529C7-E270-4893-96A7-E1315BD69EEA}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A5" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="39.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="5" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1091,11 +1102,14 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="158" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="157.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1111,11 +1125,14 @@
       <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1131,11 +1148,14 @@
       <c r="E4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1151,11 +1171,14 @@
       <c r="E5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -1171,11 +1194,14 @@
       <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
@@ -1191,11 +1217,14 @@
       <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -1211,11 +1240,14 @@
       <c r="E8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1231,118 +1263,121 @@
       <c r="E9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="11"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="11"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="11"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F43" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1351,33 +1386,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBEBE5-E65B-48FE-ACB2-E1CF3882866A}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="36.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" customWidth="1"/>
-    <col min="5" max="5" width="56.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1393,11 +1430,14 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>48</v>
       </c>
@@ -1413,11 +1453,14 @@
       <c r="E3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1433,11 +1476,14 @@
       <c r="E4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
@@ -1453,11 +1499,14 @@
       <c r="E5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
@@ -1473,11 +1522,14 @@
       <c r="E6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>52</v>
       </c>
@@ -1493,11 +1545,14 @@
       <c r="E7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>53</v>
       </c>
@@ -1513,11 +1568,14 @@
       <c r="E8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
@@ -1533,11 +1591,14 @@
       <c r="E9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>47</v>
       </c>
@@ -1553,136 +1614,158 @@
       <c r="E10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008641478389A1824A98F5C5E0B6162E5F" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ef4b42a3ed9448361827c423e89ef89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81b064ac-ebcb-49a1-93f6-e61f75bebfa7" xmlns:ns3="717d1b07-b5a1-4bb5-9d40-3a9b6c764643" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0bb8b9f62ca6562dff4b6b6c0721aa08" ns2:_="" ns3:_="">
     <xsd:import namespace="81b064ac-ebcb-49a1-93f6-e61f75bebfa7"/>
@@ -1853,32 +1936,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A5AAF0-BBBC-48E3-AADB-8E4922D37D7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1895,4 +1968,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>